--- a/docss/trend/sweden/E_huntington.xlsx
+++ b/docss/trend/sweden/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\sweden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\sweden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B1" sqref="B1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>0.13733056047931314</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C2" s="7">
-        <v>0.14968215860426426</v>
+        <v>0.15</v>
       </c>
       <c r="D2" s="7">
-        <v>0.119112778455019</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.15382521087303758</v>
+        <v>0.154</v>
       </c>
       <c r="C3" s="7">
-        <v>0.13260054122656584</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D3" s="7">
-        <v>0.18104161368682981</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>0.25848054699599743</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="C4" s="7">
-        <v>0.32128572277724743</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D4" s="7">
-        <v>0.19000529497861862</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.27181629021652043</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="C5" s="7">
-        <v>0.2551840404048562</v>
+        <v>0.255</v>
       </c>
       <c r="D5" s="7">
-        <v>0.28805806720629334</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>0.17403504066169262</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C6" s="7">
-        <v>0.15372108854353428</v>
+        <v>0.154</v>
       </c>
       <c r="D6" s="7">
-        <v>0.1909365993924439</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>0.28253053734079003</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="C7" s="7">
-        <v>0.30092103872448206</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D7" s="7">
-        <v>0.2683485527522862</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>0.19342937739565969</v>
+        <v>0.193</v>
       </c>
       <c r="C8" s="7">
-        <v>0.19783533457666636</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D8" s="7">
-        <v>0.192270761821419</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.29844688111916184</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C9" s="7">
-        <v>0.29295665305107832</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D9" s="7">
-        <v>0.29489932535216212</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>0.23510284163057804</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C10" s="7">
-        <v>0.24083476513624191</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D10" s="7">
-        <v>0.22817903757095337</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>0.19020792841911316</v>
+        <v>0.19</v>
       </c>
       <c r="C11" s="7">
-        <v>0.1108065415173769</v>
+        <v>0.111</v>
       </c>
       <c r="D11" s="7">
-        <v>0.26849499298259616</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>0.1720027681440115</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C12" s="7">
-        <v>0.17982565239071846</v>
+        <v>0.18</v>
       </c>
       <c r="D12" s="7">
-        <v>0.16263129096478224</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>0.2659108187071979</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C13" s="7">
-        <v>0.34579644910991192</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D13" s="7">
-        <v>0.18848466174677014</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>0.24003668129444122</v>
+        <v>0.24</v>
       </c>
       <c r="C14" s="7">
-        <v>0.19194571394473314</v>
+        <v>0.192</v>
       </c>
       <c r="D14" s="7">
-        <v>0.28510176204144955</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>0.16730367997661233</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C15" s="7">
-        <v>0.17821102030575275</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D15" s="7">
-        <v>0.15701065771281719</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.16153981816023588</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C16" s="7">
-        <v>0.1695550475269556</v>
+        <v>0.17</v>
       </c>
       <c r="D16" s="7">
-        <v>0.15746727492660284</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1793,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>0.20960079552605748</v>
+        <v>0.21</v>
       </c>
       <c r="C17" s="7">
-        <v>0.27080313302576542</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D17" s="7">
-        <v>0.14930033031851053</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
   </sheetData>
